--- a/AWS.xlsx
+++ b/AWS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavik.vadgama\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_MAIN\bhavik.v\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D59096B-6B62-43E9-A385-B76EA6500FB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EFD333E-199B-4859-ABFA-ED55CBFCE041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{61629CAE-62ED-40C2-B0C9-1A1FAD5F0685}"/>
   </bookViews>
@@ -845,9 +845,6 @@
     <t>Elasticsearch</t>
   </si>
   <si>
-    <t>FSx for Lustre can deliver high throughput and low latency, making it suitable for processing large training datasets quickly. It can handle the high-performance storage needs of machine learning workloads. </t>
-  </si>
-  <si>
     <t>Vault Lock.</t>
   </si>
   <si>
@@ -1320,6 +1317,9 @@
   </si>
   <si>
     <t>Analytics:</t>
+  </si>
+  <si>
+    <t>FSx for Lustre can deliver high throughput and low latency, making it suitable for processing large training datasets quickly. It can handle the high-performance storage needs of machine learning workloads. Compatible with Linux-based AMIs, including Amazon Linux, Amazon Linux 2, Red Hat Enterprise Linux (RHEL), CentOS, SUSE Linux and Ubuntu.</t>
   </si>
 </sst>
 </file>
@@ -2001,8 +2001,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3117,7 +3117,7 @@
         <v>193</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>195</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15" x14ac:dyDescent="0.35">
@@ -3127,7 +3127,7 @@
     </row>
     <row r="120" spans="1:3" ht="15" x14ac:dyDescent="0.35">
       <c r="B120" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -3164,46 +3164,46 @@
   <sheetData>
     <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -3227,94 +3227,94 @@
   <sheetData>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B17" s="36"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -3324,37 +3324,37 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="36" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="36"/>
     </row>
@@ -3380,186 +3380,186 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="36"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="36" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B42" s="36"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="36" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B51" s="36"/>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="36" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B58" s="36"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="36" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B69" s="36"/>
     </row>
@@ -3570,7 +3570,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="36" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B71" s="36"/>
     </row>
@@ -3581,12 +3581,12 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -3596,211 +3596,211 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="36" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B76" s="36"/>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="36" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B88" s="36"/>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B104" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B105" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="36" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B108" s="36"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="36" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B111" s="36"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
@@ -3810,154 +3810,154 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="36" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B119" s="36"/>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="36" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B130" s="36"/>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
@@ -3967,7 +3967,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
@@ -3977,7 +3977,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B151" s="36"/>
     </row>
@@ -3993,12 +3993,12 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="36" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B155" s="36"/>
     </row>
@@ -4009,53 +4009,53 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A51:B51"/>
     <mergeCell ref="A58:B58"/>
     <mergeCell ref="A69:B69"/>
     <mergeCell ref="A130:B130"/>
     <mergeCell ref="A151:B151"/>
     <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A88:B88"/>
     <mergeCell ref="A108:B108"/>
     <mergeCell ref="A111:B111"/>
     <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A51:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
